--- a/wordle game/wordle_project/word/jump_1.xlsx
+++ b/wordle game/wordle_project/word/jump_1.xlsx
@@ -16,7 +16,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>China</t>
+    <t>china</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>

--- a/wordle game/wordle_project/word/jump_1.xlsx
+++ b/wordle game/wordle_project/word/jump_1.xlsx
@@ -1,30 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="15855" windowHeight="7425"/>
+    <workbookView xWindow="510" yWindow="555" windowWidth="27735" windowHeight="13950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>china</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>whose</t>
+  </si>
+  <si>
+    <t>yours</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>salty</t>
+  </si>
+  <si>
+    <t>spicy</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>curly</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>queen</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>sixty</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>fifth</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>ninth</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>chess</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>twice</t>
+  </si>
+  <si>
+    <t>bored</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>habit</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>world</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +241,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -355,20 +533,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>